--- a/Lab 2/Sensor Data.xlsx
+++ b/Lab 2/Sensor Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnacpj.GARNACPJ-5520\Documents\Mobile Robotics\Mobile-Robotics\Lab 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stonecj\Documents\3rd year\Mobile Robotics\github\Mobile-Robotics\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F3167-789C-4B87-A706-F76AE4FBA7D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="48" windowWidth="11580" windowHeight="10380" firstSheet="1" activeTab="1" xr2:uid="{93826B77-DFB1-425E-9031-F718F0A6838A}"/>
+    <workbookView xWindow="11460" yWindow="48" windowWidth="11580" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="IR Sensors" sheetId="1" r:id="rId1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,6 +322,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,11 +345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,6 +1332,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1450,6 +1450,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1530,6 +1531,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1561,6 +1563,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1568,7 +1571,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2214,6 +2216,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2221,7 +2224,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3746,10 +3748,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B16D9C-E6F1-46EB-9787-9EF96BF3E961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
@@ -3767,30 +3769,30 @@
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="25" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -5230,30 +5232,30 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="28" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="28" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5272,11 +5274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA6EF3-33A2-4699-91B5-2D5516E1368B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5289,17 +5291,17 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -5848,7 +5850,7 @@
         <f t="shared" si="0"/>
         <v>20.108400000000003</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="27">
         <f t="shared" si="1"/>
         <v>5.4200000000001582E-3</v>
       </c>
@@ -5859,7 +5861,7 @@
         <f t="shared" si="2"/>
         <v>19.955599999999997</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="27">
         <f>(G23-$B23)/$B23</f>
         <v>-2.220000000000155E-3</v>
       </c>
@@ -5871,14 +5873,14 @@
       <c r="D24" s="9">
         <v>-0.26860000000000001</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="7">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="G24" s="9">
         <v>-5.4399999999999997E-2</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="11" t="s">

--- a/Lab 2/Sensor Data.xlsx
+++ b/Lab 2/Sensor Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnacpj.GARNACPJ-5520\Documents\Mobile Robotics\Mobile-Robotics\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F3167-789C-4B87-A706-F76AE4FBA7D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF9C6C-253E-43F5-AD1F-6CA64A8FEBA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="48" windowWidth="11580" windowHeight="10380" firstSheet="1" activeTab="1" xr2:uid="{93826B77-DFB1-425E-9031-F718F0A6838A}"/>
+    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{93826B77-DFB1-425E-9031-F718F0A6838A}"/>
   </bookViews>
   <sheets>
     <sheet name="IR Sensors" sheetId="1" r:id="rId1"/>
@@ -323,6 +323,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,11 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3413,16 +3413,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>60476</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>605999</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104019</xdr:rowOff>
+      <xdr:rowOff>110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
+      <xdr:colOff>24053</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>125790</xdr:rowOff>
+      <xdr:rowOff>21881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3749,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B16D9C-E6F1-46EB-9787-9EF96BF3E961}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B23"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3767,30 +3767,30 @@
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="25" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -5230,30 +5230,30 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="28" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="28" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5275,8 +5275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA6EF3-33A2-4699-91B5-2D5516E1368B}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A19" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5289,17 +5289,17 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -5848,7 +5848,7 @@
         <f t="shared" si="0"/>
         <v>20.108400000000003</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="27">
         <f t="shared" si="1"/>
         <v>5.4200000000001582E-3</v>
       </c>
@@ -5859,7 +5859,7 @@
         <f t="shared" si="2"/>
         <v>19.955599999999997</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="27">
         <f>(G23-$B23)/$B23</f>
         <v>-2.220000000000155E-3</v>
       </c>
@@ -5871,14 +5871,14 @@
       <c r="D24" s="9">
         <v>-0.26860000000000001</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="7">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="G24" s="9">
         <v>-5.4399999999999997E-2</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="11" t="s">

--- a/Lab 2/Sensor Data.xlsx
+++ b/Lab 2/Sensor Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnacpj.GARNACPJ-5520\Documents\Mobile Robotics\Mobile-Robotics\Lab 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stonecj\Documents\3rd year\Mobile Robotics\github\Mobile-Robotics\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF9C6C-253E-43F5-AD1F-6CA64A8FEBA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{93826B77-DFB1-425E-9031-F718F0A6838A}"/>
+    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IR Sensors" sheetId="1" r:id="rId1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1333,6 +1332,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1450,6 +1450,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1530,6 +1531,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1561,6 +1563,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1568,7 +1571,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2214,6 +2216,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2221,7 +2224,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3746,10 +3748,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B16D9C-E6F1-46EB-9787-9EF96BF3E961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5272,11 +5274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA6EF3-33A2-4699-91B5-2D5516E1368B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lab 2/Sensor Data.xlsx
+++ b/Lab 2/Sensor Data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IR Sensors" sheetId="1" r:id="rId1"/>
     <sheet name="Sonar Sensors" sheetId="2" r:id="rId2"/>
+    <sheet name="Photo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>Actual Inches</t>
   </si>
@@ -86,6 +87,33 @@
   <si>
     <t>Right Sonar</t>
   </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Distance (in)</t>
+  </si>
+  <si>
+    <t>-45 (degrees)</t>
+  </si>
+  <si>
+    <t>Left Photoresistor (V)</t>
+  </si>
+  <si>
+    <t>Right Photoresistor V)</t>
+  </si>
+  <si>
+    <t>0 (degrees)</t>
+  </si>
+  <si>
+    <t>45 (degrees)</t>
+  </si>
+  <si>
+    <t>On Table</t>
+  </si>
+  <si>
+    <t>Under Table</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -264,11 +292,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,6 +492,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,7 +1500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1450,7 +1617,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1531,7 +1697,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5277,7 +5442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="88" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -5906,4 +6071,328 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9">
+        <v>6</v>
+      </c>
+      <c r="C3" s="35">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1010</v>
+      </c>
+      <c r="H3" s="34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9">
+        <v>12</v>
+      </c>
+      <c r="C4" s="35">
+        <v>990</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="34">
+        <v>990</v>
+      </c>
+      <c r="F4" s="35">
+        <v>990</v>
+      </c>
+      <c r="G4" s="48">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="34">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9">
+        <v>18</v>
+      </c>
+      <c r="C5" s="35">
+        <v>980</v>
+      </c>
+      <c r="D5" s="9">
+        <v>990</v>
+      </c>
+      <c r="E5" s="34">
+        <v>980</v>
+      </c>
+      <c r="F5" s="35">
+        <v>980</v>
+      </c>
+      <c r="G5" s="48">
+        <v>990</v>
+      </c>
+      <c r="H5" s="34">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9">
+        <v>24</v>
+      </c>
+      <c r="C6" s="35">
+        <v>970</v>
+      </c>
+      <c r="D6" s="48">
+        <v>980</v>
+      </c>
+      <c r="E6" s="34">
+        <v>970</v>
+      </c>
+      <c r="F6" s="35">
+        <v>970</v>
+      </c>
+      <c r="G6" s="48">
+        <v>980</v>
+      </c>
+      <c r="H6" s="34">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13">
+        <v>30</v>
+      </c>
+      <c r="C7" s="39">
+        <v>975</v>
+      </c>
+      <c r="D7" s="13">
+        <v>980</v>
+      </c>
+      <c r="E7" s="40">
+        <v>975</v>
+      </c>
+      <c r="F7" s="39">
+        <v>960</v>
+      </c>
+      <c r="G7" s="13">
+        <v>975</v>
+      </c>
+      <c r="H7" s="40">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1005</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1010</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1005</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1005</v>
+      </c>
+      <c r="G8" s="48">
+        <v>1010</v>
+      </c>
+      <c r="H8" s="34">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="35">
+        <v>990</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="34">
+        <v>990</v>
+      </c>
+      <c r="F9" s="35">
+        <v>990</v>
+      </c>
+      <c r="G9" s="48">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="34">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9">
+        <v>18</v>
+      </c>
+      <c r="C10" s="35">
+        <v>980</v>
+      </c>
+      <c r="D10" s="9">
+        <v>990</v>
+      </c>
+      <c r="E10" s="34">
+        <v>980</v>
+      </c>
+      <c r="F10" s="35">
+        <v>980</v>
+      </c>
+      <c r="G10" s="48">
+        <v>990</v>
+      </c>
+      <c r="H10" s="34">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9">
+        <v>24</v>
+      </c>
+      <c r="C11" s="35">
+        <v>975</v>
+      </c>
+      <c r="D11" s="48">
+        <v>985</v>
+      </c>
+      <c r="E11" s="34">
+        <v>975</v>
+      </c>
+      <c r="F11" s="35">
+        <v>970</v>
+      </c>
+      <c r="G11" s="48">
+        <v>985</v>
+      </c>
+      <c r="H11" s="34">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="46">
+        <v>30</v>
+      </c>
+      <c r="C12" s="45">
+        <v>970</v>
+      </c>
+      <c r="D12" s="46">
+        <v>980</v>
+      </c>
+      <c r="E12" s="47">
+        <v>970</v>
+      </c>
+      <c r="F12" s="45">
+        <v>965</v>
+      </c>
+      <c r="G12" s="46">
+        <v>975</v>
+      </c>
+      <c r="H12" s="47">
+        <v>960</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab 2/Sensor Data.xlsx
+++ b/Lab 2/Sensor Data.xlsx
@@ -6078,7 +6078,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C27" sqref="A15:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lab 2/Sensor Data.xlsx
+++ b/Lab 2/Sensor Data.xlsx
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -411,11 +411,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -474,6 +485,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,14 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,10 +523,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3934,30 +3956,30 @@
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="28" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
     </row>
     <row r="3" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -5397,30 +5419,30 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="31" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="31" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="31" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="33"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5457,16 +5479,16 @@
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -6075,324 +6097,331 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="A15:C27"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="42" t="s">
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="42" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="48"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1010</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1010</v>
+      </c>
+      <c r="I4" s="28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9">
+        <v>12</v>
+      </c>
+      <c r="D5" s="29">
+        <v>990</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="28">
+        <v>990</v>
+      </c>
+      <c r="G5" s="29">
+        <v>990</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="28">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="D6" s="29">
+        <v>980</v>
+      </c>
+      <c r="E6" s="9">
+        <v>990</v>
+      </c>
+      <c r="F6" s="28">
+        <v>980</v>
+      </c>
+      <c r="G6" s="29">
+        <v>980</v>
+      </c>
+      <c r="H6" s="38">
+        <v>990</v>
+      </c>
+      <c r="I6" s="28">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9">
         <v>24</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="38" t="s">
+      <c r="D7" s="29">
+        <v>970</v>
+      </c>
+      <c r="E7" s="38">
+        <v>980</v>
+      </c>
+      <c r="F7" s="28">
+        <v>970</v>
+      </c>
+      <c r="G7" s="29">
+        <v>970</v>
+      </c>
+      <c r="H7" s="38">
+        <v>980</v>
+      </c>
+      <c r="I7" s="28">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13">
+        <v>30</v>
+      </c>
+      <c r="D8" s="33">
+        <v>975</v>
+      </c>
+      <c r="E8" s="13">
+        <v>980</v>
+      </c>
+      <c r="F8" s="34">
+        <v>975</v>
+      </c>
+      <c r="G8" s="33">
+        <v>960</v>
+      </c>
+      <c r="H8" s="13">
+        <v>975</v>
+      </c>
+      <c r="I8" s="34">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1005</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1010</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1005</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1005</v>
+      </c>
+      <c r="H9" s="38">
+        <v>1010</v>
+      </c>
+      <c r="I9" s="28">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9">
+        <v>12</v>
+      </c>
+      <c r="D10" s="29">
+        <v>990</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="28">
+        <v>990</v>
+      </c>
+      <c r="G10" s="29">
+        <v>990</v>
+      </c>
+      <c r="H10" s="38">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="28">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9">
+        <v>18</v>
+      </c>
+      <c r="D11" s="29">
+        <v>980</v>
+      </c>
+      <c r="E11" s="9">
+        <v>990</v>
+      </c>
+      <c r="F11" s="28">
+        <v>980</v>
+      </c>
+      <c r="G11" s="29">
+        <v>980</v>
+      </c>
+      <c r="H11" s="38">
+        <v>990</v>
+      </c>
+      <c r="I11" s="28">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9">
         <v>24</v>
       </c>
+      <c r="D12" s="29">
+        <v>975</v>
+      </c>
+      <c r="E12" s="38">
+        <v>985</v>
+      </c>
+      <c r="F12" s="28">
+        <v>975</v>
+      </c>
+      <c r="G12" s="29">
+        <v>970</v>
+      </c>
+      <c r="H12" s="38">
+        <v>985</v>
+      </c>
+      <c r="I12" s="28">
+        <v>970</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9">
-        <v>6</v>
-      </c>
-      <c r="C3" s="35">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E3" s="34">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="35">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1010</v>
-      </c>
-      <c r="H3" s="34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9">
-        <v>12</v>
-      </c>
-      <c r="C4" s="35">
-        <v>990</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="34">
-        <v>990</v>
-      </c>
-      <c r="F4" s="35">
-        <v>990</v>
-      </c>
-      <c r="G4" s="48">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="34">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9">
-        <v>18</v>
-      </c>
-      <c r="C5" s="35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="36">
+        <v>30</v>
+      </c>
+      <c r="D13" s="35">
+        <v>970</v>
+      </c>
+      <c r="E13" s="36">
         <v>980</v>
       </c>
-      <c r="D5" s="9">
-        <v>990</v>
-      </c>
-      <c r="E5" s="34">
-        <v>980</v>
-      </c>
-      <c r="F5" s="35">
-        <v>980</v>
-      </c>
-      <c r="G5" s="48">
-        <v>990</v>
-      </c>
-      <c r="H5" s="34">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9">
-        <v>24</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="F13" s="37">
         <v>970</v>
       </c>
-      <c r="D6" s="48">
-        <v>980</v>
-      </c>
-      <c r="E6" s="34">
-        <v>970</v>
-      </c>
-      <c r="F6" s="35">
-        <v>970</v>
-      </c>
-      <c r="G6" s="48">
-        <v>980</v>
-      </c>
-      <c r="H6" s="34">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13">
-        <v>30</v>
-      </c>
-      <c r="C7" s="39">
+      <c r="G13" s="35">
+        <v>965</v>
+      </c>
+      <c r="H13" s="36">
         <v>975</v>
       </c>
-      <c r="D7" s="13">
-        <v>980</v>
-      </c>
-      <c r="E7" s="40">
-        <v>975</v>
-      </c>
-      <c r="F7" s="39">
-        <v>960</v>
-      </c>
-      <c r="G7" s="13">
-        <v>975</v>
-      </c>
-      <c r="H7" s="40">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9">
-        <v>6</v>
-      </c>
-      <c r="C8" s="35">
-        <v>1005</v>
-      </c>
-      <c r="D8" s="48">
-        <v>1010</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1005</v>
-      </c>
-      <c r="F8" s="35">
-        <v>1005</v>
-      </c>
-      <c r="G8" s="48">
-        <v>1010</v>
-      </c>
-      <c r="H8" s="34">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="9">
-        <v>12</v>
-      </c>
-      <c r="C9" s="35">
-        <v>990</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="34">
-        <v>990</v>
-      </c>
-      <c r="F9" s="35">
-        <v>990</v>
-      </c>
-      <c r="G9" s="48">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="34">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9">
-        <v>18</v>
-      </c>
-      <c r="C10" s="35">
-        <v>980</v>
-      </c>
-      <c r="D10" s="9">
-        <v>990</v>
-      </c>
-      <c r="E10" s="34">
-        <v>980</v>
-      </c>
-      <c r="F10" s="35">
-        <v>980</v>
-      </c>
-      <c r="G10" s="48">
-        <v>990</v>
-      </c>
-      <c r="H10" s="34">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9">
-        <v>24</v>
-      </c>
-      <c r="C11" s="35">
-        <v>975</v>
-      </c>
-      <c r="D11" s="48">
-        <v>985</v>
-      </c>
-      <c r="E11" s="34">
-        <v>975</v>
-      </c>
-      <c r="F11" s="35">
-        <v>970</v>
-      </c>
-      <c r="G11" s="48">
-        <v>985</v>
-      </c>
-      <c r="H11" s="34">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="46">
-        <v>30</v>
-      </c>
-      <c r="C12" s="45">
-        <v>970</v>
-      </c>
-      <c r="D12" s="46">
-        <v>980</v>
-      </c>
-      <c r="E12" s="47">
-        <v>970</v>
-      </c>
-      <c r="F12" s="45">
-        <v>965</v>
-      </c>
-      <c r="G12" s="46">
-        <v>975</v>
-      </c>
-      <c r="H12" s="47">
+      <c r="I13" s="37">
         <v>960</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>